--- a/Portofolio Dan Sertifikat/My Skill Accounting 2 Elearning Maulana Yahya.xlsx
+++ b/Portofolio Dan Sertifikat/My Skill Accounting 2 Elearning Maulana Yahya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakuy\Documents\tugas my skill\FIX Tugas\Portofolio Excel\Akuntansi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakuy\Documents\Statistik Excel\tugas my skill\FIX Tugas\Portofolio Excel\Akuntansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CE012F-D1FD-4E9F-BACC-4D55EA34E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC50318-7EB4-4CF4-8BCA-26D0F28DF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28785" windowHeight="15450" firstSheet="25" activeTab="27" xr2:uid="{59DBEB53-1372-4BAD-A0BA-9AE9E17251B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{59DBEB53-1372-4BAD-A0BA-9AE9E17251B9}"/>
   </bookViews>
   <sheets>
     <sheet name="KASUS 1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,9 @@
     <sheet name="Kasus 20" sheetId="46" r:id="rId42"/>
     <sheet name="Kasus 21" sheetId="47" r:id="rId43"/>
     <sheet name="Kasus 22" sheetId="48" r:id="rId44"/>
-    <sheet name="Sheet2" sheetId="49" r:id="rId45"/>
+    <sheet name="Kasus 23" sheetId="49" r:id="rId45"/>
+    <sheet name="Kasus 24" sheetId="50" r:id="rId46"/>
+    <sheet name="Sheet1" sheetId="51" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -100,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="674">
   <si>
     <t>Data transaksi</t>
   </si>
@@ -2192,12 +2194,99 @@
   <si>
     <t>Belum Jatuh Tempo</t>
   </si>
+  <si>
+    <t>Dikurangi : Biaya Variabel</t>
+  </si>
+  <si>
+    <t>Dikurangi : Biaya Tetap</t>
+  </si>
+  <si>
+    <t>Laba Sebelum Pajak</t>
+  </si>
+  <si>
+    <t>Margin Kontribusi</t>
+  </si>
+  <si>
+    <t>Biaya Tetap</t>
+  </si>
+  <si>
+    <t>Biaya Tetap (F)</t>
+  </si>
+  <si>
+    <t>Laba Yang Diinginkan (L)</t>
+  </si>
+  <si>
+    <t>Harga Jual Perunit (P)</t>
+  </si>
+  <si>
+    <t>Biaya Perunit (V)</t>
+  </si>
+  <si>
+    <t>Penjualan (X)</t>
+  </si>
+  <si>
+    <t>Perkiraan Penjualaan</t>
+  </si>
+  <si>
+    <t>Laba Sebelum Pajaknya</t>
+  </si>
+  <si>
+    <t>Uraian</t>
+  </si>
+  <si>
+    <t>Biaya Variabel</t>
+  </si>
+  <si>
+    <t>Bahan Baku</t>
+  </si>
+  <si>
+    <t>Upah Langsung</t>
+  </si>
+  <si>
+    <t>Overhead Pabrik</t>
+  </si>
+  <si>
+    <t>Biaya Penjualan</t>
+  </si>
+  <si>
+    <t>Biaya Umum</t>
+  </si>
+  <si>
+    <t>Biaya Overhead Pabrik</t>
+  </si>
+  <si>
+    <t>Asumsi Laba</t>
+  </si>
+  <si>
+    <t>Total aktiva Yang Diharapkan</t>
+  </si>
+  <si>
+    <t>Biaya Perunit</t>
+  </si>
+  <si>
+    <t>Pesentase Laba Dan Persentase Biaya</t>
+  </si>
+  <si>
+    <t>Laba Perunit</t>
+  </si>
+  <si>
+    <t>Harga Jual</t>
+  </si>
+  <si>
+    <t>Biaya Per Unit :</t>
+  </si>
+  <si>
+    <t>Laba :</t>
+  </si>
+  <si>
+    <t>Harga Jual Per Unit :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="22">
+  <numFmts count="24">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -2220,8 +2309,10 @@
     <numFmt numFmtId="178" formatCode="#,##0\ &quot;Perahun&quot;"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="#,##0\ &quot;Unit&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;/Unit&quot;"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2573,6 +2664,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3357,7 +3461,7 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4204,6 +4308,33 @@
     <xf numFmtId="3" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4622,6 +4753,51 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="55" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -35280,6 +35456,2324 @@
           <a:endParaRPr sz="1200">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Google Shape;87;p15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154AAFA9-6313-5AA1-127A-C4E1E16160CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="733425"/>
+          <a:ext cx="7639050" cy="2604900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1200">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Kamu adalah seorang akuntan manajemen di Aerostreet, sebuah brand sepatu lokal asal Jawa Tengah yang berhasil mendunia. Saat ini Aerostreet juga meluncurkan produk baru berupa totebag kanvas.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1200">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Head of finance dari perusahaan ini memberikan kamu sebuah data proyeksi laba rugi perusahaan pada tahun 2024. Kamu diminta untuk mengasumsikan jika perusahaan berhasil menjual 100 unit produk dengan harga per produknya Rp 20.000.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1200">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Menurut kamu jika perusahaan menghendaki laba sebelum pajak Rp 3.000.000, berapa jumlah unit yang harus terjual? Kemudian, jika asumsi tarif pajak 25% dan laba setelah pajak yang diinginkan sebesar Rp 2.500.000 maka berapakah laba sebelum pajak?</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Google Shape;86;p15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA3B774-E8D8-A1C6-FB6C-D82932E1C961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123826" y="200025"/>
+          <a:ext cx="4876800" cy="443776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="0" tIns="12700" rIns="0" bIns="0" anchor="t" anchorCtr="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="12700" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buSzPts val="3600"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Analisis Biaya Volume Laba</a:t>
+          </a:r>
+          <a:endParaRPr sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Google Shape;109;p16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCFCE9C-E759-FA4E-2F40-AAA90D9736E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="6953250" cy="697200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1200">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Berikut adalah data proyeksi laba rugi Aerostreet tahun 2024. Asumsikan bahwa Aerostreet berhasil menjual 100 unit produk dengan harga per produknya Rp 20.000.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6711389" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8119EC8E-EDB3-91C3-5E6F-C5552E1C2625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7562850"/>
+          <a:ext cx="6711389" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jika Perusahaan menghedaki laba sebelum pajak Rp 3.000.000 bearti Perusahaan perlu menjual 239 unit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6724650" cy="419100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F3F977-4E13-49E9-928E-BD5DB36AF9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9753601"/>
+          <a:ext cx="6724650" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jika Perusahaan menjual 265 unit, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>maka Laba sebelum pajaknya Rp 3.433.334</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-ID" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Google Shape;85;p15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCABE66-C397-6EE0-21B8-38544489C8C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="923925"/>
+          <a:ext cx="5181600" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1100">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Kamu adalah seorang akuntan manajemen di PT. Mayora Indah Tbk, salah satu perusahaan makanan dan minuman terkemuka di Indonesia.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1100">
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Pak Anton sebagai Head of Finance memberikan kamu sebuah informasi terkait biaya produksi dan kamu ditugaskan untuk menentukan harga jual produk dengan menggunakan metode total cost. Asumsikan bahwa laba ditentukan 25% dari total aktiva yang diharapkan adalah Rp 100.000.000.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Google Shape;86;p15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E70D32-D097-975F-AADE-509092B78483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="4305300" cy="505331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="0" tIns="12700" rIns="0" bIns="0" anchor="t" anchorCtr="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="12700" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buSzPts val="3600"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Penentuan Harga Jual</a:t>
+          </a:r>
+          <a:endParaRPr sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto"/>
+            <a:ea typeface="Roboto"/>
+            <a:cs typeface="Roboto"/>
+            <a:sym typeface="Roboto"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Google Shape;134;p17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3D0C9C-BBBC-6A23-1231-C72A61A0EAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8515351"/>
+          <a:ext cx="8591550" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="EEEEEE"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>Analisis :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t> Jika</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t> perusahaan menghedaki laba 25% dari total aktiva maka harga jual yang perlu diberlakukan adalah Rp 11.600</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+              <a:ea typeface="Roboto"/>
+              <a:cs typeface="Roboto"/>
+              <a:sym typeface="Roboto"/>
+            </a:rPr>
+            <a:t>dengan biaya perunit sebesar Rp 6.600.</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="Roboto"/>
             <a:ea typeface="Roboto"/>
@@ -42429,7 +44923,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42443,10 +44937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="353"/>
+      <c r="B1" s="362"/>
     </row>
     <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="55" t="s">
@@ -42457,13 +44951,13 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="352" t="s">
+      <c r="E2" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
+      <c r="I2" s="361"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="10">
@@ -43350,8 +45844,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43555,21 +46049,35 @@
       <c r="B12" s="143"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="E12" s="143">
+        <v>6000000</v>
+      </c>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
       <c r="A13" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="B13" s="143">
+        <f>SUM(B3:B11)</f>
+        <v>42000000</v>
+      </c>
+      <c r="C13" s="143">
+        <f t="shared" ref="C13:F13" si="0">SUM(C3:C11)</f>
+        <v>23000000</v>
+      </c>
+      <c r="D13" s="143">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
       <c r="E13" s="143">
-        <f>'KASUS 5.1'!B19</f>
+        <f>E12</f>
         <v>6000000</v>
       </c>
-      <c r="F13" s="143"/>
+      <c r="F13" s="143">
+        <f t="shared" si="0"/>
+        <v>11000000</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="62" t="s">
@@ -44146,12 +46654,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="428" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="92" t="s">
@@ -44326,11 +46834,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="429" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -44363,13 +46871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="431" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="309" t="s">
@@ -44389,7 +46897,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="430" t="s">
         <v>174</v>
       </c>
       <c r="B3" s="97" t="s">
@@ -44402,7 +46910,7 @@
       <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="421"/>
+      <c r="A4" s="430"/>
       <c r="B4" s="97" t="s">
         <v>7</v>
       </c>
@@ -44413,7 +46921,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="421"/>
+      <c r="A5" s="430"/>
       <c r="B5" s="97" t="s">
         <v>176</v>
       </c>
@@ -44422,7 +46930,7 @@
       <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="421"/>
+      <c r="A6" s="430"/>
       <c r="B6" s="97" t="s">
         <v>177</v>
       </c>
@@ -44431,7 +46939,7 @@
       <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="421"/>
+      <c r="A7" s="430"/>
       <c r="B7" s="97" t="s">
         <v>176</v>
       </c>
@@ -44440,7 +46948,7 @@
       <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:5" ht="23.25">
-      <c r="A8" s="421"/>
+      <c r="A8" s="430"/>
       <c r="B8" s="97" t="s">
         <v>178</v>
       </c>
@@ -44449,7 +46957,7 @@
       <c r="E8" s="102"/>
     </row>
     <row r="9" spans="1:5" ht="23.25">
-      <c r="A9" s="421"/>
+      <c r="A9" s="430"/>
       <c r="B9" s="97" t="s">
         <v>178</v>
       </c>
@@ -44458,7 +46966,7 @@
       <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="430"/>
       <c r="B10" s="104" t="s">
         <v>191</v>
       </c>
@@ -44469,7 +46977,7 @@
       <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="421"/>
+      <c r="A11" s="430"/>
       <c r="B11" s="106" t="s">
         <v>189</v>
       </c>
@@ -44480,7 +46988,7 @@
       <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="421"/>
+      <c r="A12" s="430"/>
       <c r="B12" s="106" t="s">
         <v>181</v>
       </c>
@@ -44491,7 +46999,7 @@
       <c r="E12" s="105"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="421"/>
+      <c r="A13" s="430"/>
       <c r="B13" s="106" t="s">
         <v>180</v>
       </c>
@@ -44502,7 +47010,7 @@
       <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A14" s="421"/>
+      <c r="A14" s="430"/>
       <c r="B14" s="107" t="s">
         <v>187</v>
       </c>
@@ -44514,7 +47022,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
-      <c r="A15" s="421"/>
+      <c r="A15" s="430"/>
       <c r="B15" s="107" t="s">
         <v>175</v>
       </c>
@@ -44525,7 +47033,7 @@
       <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:5" ht="23.25">
-      <c r="A16" s="421"/>
+      <c r="A16" s="430"/>
       <c r="B16" s="97" t="s">
         <v>7</v>
       </c>
@@ -44565,13 +47073,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="310" t="s">
@@ -44591,7 +47099,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A3" s="423" t="s">
+      <c r="A3" s="432" t="s">
         <v>174</v>
       </c>
       <c r="B3" s="109" t="s">
@@ -44604,7 +47112,7 @@
       <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="423"/>
+      <c r="A4" s="432"/>
       <c r="B4" s="109" t="s">
         <v>7</v>
       </c>
@@ -44615,7 +47123,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="423"/>
+      <c r="A5" s="432"/>
       <c r="B5" s="109" t="s">
         <v>185</v>
       </c>
@@ -44626,7 +47134,7 @@
       <c r="E5" s="112"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="423"/>
+      <c r="A6" s="432"/>
       <c r="B6" s="109" t="s">
         <v>175</v>
       </c>
@@ -44637,7 +47145,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="423"/>
+      <c r="A7" s="432"/>
       <c r="B7" s="109" t="s">
         <v>183</v>
       </c>
@@ -44648,7 +47156,7 @@
       <c r="E7" s="112"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="423"/>
+      <c r="A8" s="432"/>
       <c r="B8" s="109" t="s">
         <v>175</v>
       </c>
@@ -44659,7 +47167,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="423"/>
+      <c r="A9" s="432"/>
       <c r="B9" s="109" t="s">
         <v>184</v>
       </c>
@@ -44670,7 +47178,7 @@
       <c r="E9" s="112"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="423"/>
+      <c r="A10" s="432"/>
       <c r="B10" s="109" t="s">
         <v>175</v>
       </c>
@@ -44681,7 +47189,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="423"/>
+      <c r="A11" s="432"/>
       <c r="B11" s="52" t="s">
         <v>190</v>
       </c>
@@ -44692,7 +47200,7 @@
       <c r="E11" s="112"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="423"/>
+      <c r="A12" s="432"/>
       <c r="B12" s="113" t="s">
         <v>175</v>
       </c>
@@ -44703,7 +47211,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="423"/>
+      <c r="A13" s="432"/>
       <c r="B13" s="52" t="s">
         <v>175</v>
       </c>
@@ -44714,7 +47222,7 @@
       <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="423"/>
+      <c r="A14" s="432"/>
       <c r="B14" s="52" t="s">
         <v>7</v>
       </c>
@@ -44725,7 +47233,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="23.25">
-      <c r="A15" s="423"/>
+      <c r="A15" s="432"/>
       <c r="B15" s="52" t="s">
         <v>175</v>
       </c>
@@ -44736,7 +47244,7 @@
       <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" ht="23.25">
-      <c r="A16" s="423"/>
+      <c r="A16" s="432"/>
       <c r="B16" s="118" t="s">
         <v>7</v>
       </c>
@@ -44783,12 +47291,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="425" t="s">
+      <c r="A7" s="434" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="426"/>
-      <c r="C7" s="426"/>
-      <c r="D7" s="427"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="435"/>
+      <c r="D7" s="436"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="47" t="s">
@@ -44999,10 +47507,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5">
-      <c r="A9" s="428" t="s">
+      <c r="A9" s="437" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="430">
+      <c r="B9" s="439">
         <f>'KASUS 8.1'!B13/'KASUS 8.1'!B14</f>
         <v>0.67957990185187445</v>
       </c>
@@ -45011,8 +47519,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="32.25" thickBot="1">
-      <c r="A10" s="429"/>
-      <c r="B10" s="431"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="122" t="s">
         <v>212</v>
       </c>
@@ -45220,36 +47728,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="369" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="356"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="365"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="366" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="359"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="368"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="366" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="358"/>
-      <c r="D4" s="359"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="368"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="2" t="s">
@@ -47130,7 +49638,7 @@
   </sheetPr>
   <dimension ref="A3:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -47172,7 +49680,7 @@
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
-      <c r="B14" s="432" t="s">
+      <c r="B14" s="441" t="s">
         <v>335</v>
       </c>
       <c r="C14" s="183" t="s">
@@ -47184,7 +49692,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="179"/>
-      <c r="B15" s="433"/>
+      <c r="B15" s="442"/>
       <c r="C15" s="179" t="s">
         <v>7</v>
       </c>
@@ -47197,7 +49705,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="179"/>
-      <c r="B16" s="433"/>
+      <c r="B16" s="442"/>
       <c r="C16" s="179" t="s">
         <v>332</v>
       </c>
@@ -47210,7 +49718,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="180"/>
-      <c r="B17" s="433"/>
+      <c r="B17" s="442"/>
       <c r="C17" s="179" t="s">
         <v>333</v>
       </c>
@@ -47225,7 +49733,7 @@
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
-      <c r="B18" s="433"/>
+      <c r="B18" s="442"/>
       <c r="C18" s="183" t="s">
         <v>337</v>
       </c>
@@ -47235,7 +49743,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="179"/>
-      <c r="B19" s="433"/>
+      <c r="B19" s="442"/>
       <c r="C19" s="179" t="s">
         <v>334</v>
       </c>
@@ -47248,7 +49756,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="180"/>
-      <c r="B20" s="433"/>
+      <c r="B20" s="442"/>
       <c r="C20" s="179" t="s">
         <v>335</v>
       </c>
@@ -47261,7 +49769,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="179"/>
-      <c r="B21" s="433"/>
+      <c r="B21" s="442"/>
       <c r="C21" s="179" t="s">
         <v>7</v>
       </c>
@@ -47277,7 +49785,7 @@
         <f>DATE(2006,12,31)</f>
         <v>39082</v>
       </c>
-      <c r="B22" s="433"/>
+      <c r="B22" s="442"/>
       <c r="C22" s="183" t="s">
         <v>336</v>
       </c>
@@ -47287,7 +49795,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="179"/>
-      <c r="B23" s="433"/>
+      <c r="B23" s="442"/>
       <c r="C23" s="179" t="s">
         <v>334</v>
       </c>
@@ -47300,7 +49808,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="180"/>
-      <c r="B24" s="433"/>
+      <c r="B24" s="442"/>
       <c r="C24" s="179" t="s">
         <v>335</v>
       </c>
@@ -47313,7 +49821,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="179"/>
-      <c r="B25" s="434"/>
+      <c r="B25" s="443"/>
       <c r="C25" s="179" t="s">
         <v>331</v>
       </c>
@@ -47337,7 +49845,7 @@
         <f>A14</f>
         <v>38718</v>
       </c>
-      <c r="B27" s="435" t="s">
+      <c r="B27" s="444" t="s">
         <v>338</v>
       </c>
       <c r="C27" s="183" t="str">
@@ -47350,7 +49858,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="180"/>
-      <c r="B28" s="436"/>
+      <c r="B28" s="445"/>
       <c r="C28" s="179" t="str">
         <f>C15</f>
         <v>Kas</v>
@@ -47364,7 +49872,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="179"/>
-      <c r="B29" s="436"/>
+      <c r="B29" s="445"/>
       <c r="C29" s="179" t="s">
         <v>338</v>
       </c>
@@ -47377,7 +49885,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="179"/>
-      <c r="B30" s="436"/>
+      <c r="B30" s="445"/>
       <c r="C30" s="179" t="str">
         <f>C17</f>
         <v>Hutang bligasi</v>
@@ -47393,7 +49901,7 @@
         <f>A18</f>
         <v>38899</v>
       </c>
-      <c r="B31" s="436"/>
+      <c r="B31" s="445"/>
       <c r="C31" s="183" t="str">
         <f>C18</f>
         <v>(Pembayaran Bunga Pertama)</v>
@@ -47404,7 +49912,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="179"/>
-      <c r="B32" s="436"/>
+      <c r="B32" s="445"/>
       <c r="C32" s="179" t="str">
         <f>C19</f>
         <v>Beban Bunga Obligasi</v>
@@ -47418,7 +49926,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="179"/>
-      <c r="B33" s="436"/>
+      <c r="B33" s="445"/>
       <c r="C33" s="179" t="s">
         <v>339</v>
       </c>
@@ -47431,7 +49939,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="179"/>
-      <c r="B34" s="436"/>
+      <c r="B34" s="445"/>
       <c r="C34" s="179" t="str">
         <f>C21</f>
         <v>Kas</v>
@@ -47448,7 +49956,7 @@
         <f>A22</f>
         <v>39082</v>
       </c>
-      <c r="B35" s="436"/>
+      <c r="B35" s="445"/>
       <c r="C35" s="183" t="str">
         <f>C22</f>
         <v>(Penyesuaian Obligasi)</v>
@@ -47459,7 +49967,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="179"/>
-      <c r="B36" s="436"/>
+      <c r="B36" s="445"/>
       <c r="C36" s="179" t="str">
         <f>C23</f>
         <v>Beban Bunga Obligasi</v>
@@ -47473,7 +49981,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="179"/>
-      <c r="B37" s="436"/>
+      <c r="B37" s="445"/>
       <c r="C37" s="179" t="str">
         <f>C33</f>
         <v>Premium  Atas Obligasi</v>
@@ -47487,7 +49995,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="179"/>
-      <c r="B38" s="437"/>
+      <c r="B38" s="446"/>
       <c r="C38" s="179" t="str">
         <f>C25</f>
         <v>Hutang Obligasi</v>
@@ -47738,15 +50246,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="361" t="s">
+      <c r="B2" s="371"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="370" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="363"/>
+      <c r="E2" s="372"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="320" t="s">
@@ -47850,7 +50358,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="364">
+      <c r="A10" s="373">
         <v>45672</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -47865,7 +50373,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="365"/>
+      <c r="A11" s="374"/>
       <c r="B11" s="31" t="s">
         <v>75</v>
       </c>
@@ -47878,7 +50386,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="365"/>
+      <c r="A12" s="374"/>
       <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
@@ -47891,7 +50399,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="366"/>
+      <c r="A13" s="375"/>
       <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
@@ -48297,10 +50805,10 @@
   </cols>
   <sheetData>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="438" t="s">
+      <c r="A20" s="447" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="438"/>
+      <c r="B20" s="447"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="208" t="s">
@@ -48336,13 +50844,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="439" t="s">
+      <c r="A26" s="448" t="s">
         <v>402</v>
       </c>
-      <c r="B26" s="439"/>
-      <c r="C26" s="439"/>
-      <c r="D26" s="439"/>
-      <c r="E26" s="439"/>
+      <c r="B26" s="448"/>
+      <c r="C26" s="448"/>
+      <c r="D26" s="448"/>
+      <c r="E26" s="448"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="207" t="s">
@@ -48386,10 +50894,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A31" s="440" t="s">
+      <c r="A31" s="449" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="440"/>
+      <c r="B31" s="449"/>
     </row>
     <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="208" t="s">
@@ -48455,13 +50963,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="439" t="s">
+      <c r="A40" s="448" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="439"/>
-      <c r="C40" s="439"/>
-      <c r="D40" s="439"/>
-      <c r="E40" s="439"/>
+      <c r="B40" s="448"/>
+      <c r="C40" s="448"/>
+      <c r="D40" s="448"/>
+      <c r="E40" s="448"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="207" t="s">
@@ -48505,10 +51013,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1">
-      <c r="A45" s="440" t="s">
+      <c r="A45" s="449" t="s">
         <v>384</v>
       </c>
-      <c r="B45" s="440"/>
+      <c r="B45" s="449"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="208" t="s">
@@ -48585,10 +51093,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="45" customHeight="1">
-      <c r="A54" s="441" t="s">
+      <c r="A54" s="450" t="s">
         <v>393</v>
       </c>
-      <c r="B54" s="440"/>
+      <c r="B54" s="449"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="208" t="s">
@@ -48644,13 +51152,13 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="439" t="s">
+      <c r="A60" s="448" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="439"/>
-      <c r="C60" s="439"/>
-      <c r="D60" s="439"/>
-      <c r="E60" s="439"/>
+      <c r="B60" s="448"/>
+      <c r="C60" s="448"/>
+      <c r="D60" s="448"/>
+      <c r="E60" s="448"/>
       <c r="H60" s="93">
         <v>2</v>
       </c>
@@ -48722,13 +51230,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="439" t="s">
+      <c r="A64" s="448" t="s">
         <v>403</v>
       </c>
-      <c r="B64" s="439"/>
-      <c r="C64" s="439"/>
-      <c r="D64" s="439"/>
-      <c r="E64" s="439"/>
+      <c r="B64" s="448"/>
+      <c r="C64" s="448"/>
+      <c r="D64" s="448"/>
+      <c r="E64" s="448"/>
       <c r="H64" s="93">
         <v>6</v>
       </c>
@@ -48906,13 +51414,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="439" t="s">
+      <c r="A19" s="448" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="439"/>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
-      <c r="E19" s="439"/>
+      <c r="B19" s="448"/>
+      <c r="C19" s="448"/>
+      <c r="D19" s="448"/>
+      <c r="E19" s="448"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="207" t="s">
@@ -48956,11 +51464,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="442"/>
-      <c r="B23" s="442"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="442"/>
+      <c r="A23" s="451"/>
+      <c r="B23" s="451"/>
+      <c r="C23" s="451"/>
+      <c r="D23" s="451"/>
+      <c r="E23" s="451"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="161" t="s">
@@ -49009,13 +51517,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="443" t="s">
+      <c r="A30" s="452" t="s">
         <v>414</v>
       </c>
-      <c r="B30" s="443"/>
-      <c r="C30" s="443"/>
-      <c r="D30" s="443"/>
-      <c r="E30" s="443"/>
+      <c r="B30" s="452"/>
+      <c r="C30" s="452"/>
+      <c r="D30" s="452"/>
+      <c r="E30" s="452"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="220" t="s">
@@ -49101,10 +51609,10 @@
   </cols>
   <sheetData>
     <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="445" t="s">
+      <c r="A14" s="454" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="445"/>
+      <c r="B14" s="454"/>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="152" t="s">
@@ -49144,10 +51652,10 @@
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="444" t="s">
+      <c r="A20" s="453" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="444"/>
+      <c r="B20" s="453"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="152" t="s">
@@ -49233,13 +51741,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="446" t="s">
+      <c r="A31" s="455" t="s">
         <v>420</v>
       </c>
-      <c r="B31" s="446"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="446"/>
-      <c r="E31" s="446"/>
+      <c r="B31" s="455"/>
+      <c r="C31" s="455"/>
+      <c r="D31" s="455"/>
+      <c r="E31" s="455"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="207" t="s">
@@ -49307,13 +51815,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="447" t="s">
+      <c r="A37" s="456" t="s">
         <v>420</v>
       </c>
-      <c r="B37" s="447"/>
-      <c r="C37" s="447"/>
-      <c r="D37" s="447"/>
-      <c r="E37" s="447"/>
+      <c r="B37" s="456"/>
+      <c r="C37" s="456"/>
+      <c r="D37" s="456"/>
+      <c r="E37" s="456"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="207" t="s">
@@ -49699,11 +52207,11 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="243"/>
-      <c r="B43" s="448" t="s">
+      <c r="B43" s="457" t="s">
         <v>448</v>
       </c>
-      <c r="C43" s="448"/>
-      <c r="D43" s="448"/>
+      <c r="C43" s="457"/>
+      <c r="D43" s="457"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="243"/>
@@ -49943,11 +52451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="459" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
       <c r="D1" s="241"/>
     </row>
     <row r="2" spans="1:4">
@@ -50041,12 +52549,12 @@
       <c r="D9" s="237"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="449" t="s">
+      <c r="A10" s="458" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="449"/>
-      <c r="C10" s="449"/>
-      <c r="D10" s="449"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="458"/>
+      <c r="D10" s="458"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="242" t="s">
@@ -50102,12 +52610,12 @@
       <c r="D14" s="237"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="451" t="s">
+      <c r="A15" s="460" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="451"/>
-      <c r="C15" s="451"/>
-      <c r="D15" s="451"/>
+      <c r="B15" s="460"/>
+      <c r="C15" s="460"/>
+      <c r="D15" s="460"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="239" t="s">
@@ -50214,11 +52722,11 @@
       <c r="D23" s="238"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="449" t="s">
+      <c r="A24" s="458" t="s">
         <v>483</v>
       </c>
-      <c r="B24" s="449"/>
-      <c r="C24" s="449"/>
+      <c r="B24" s="458"/>
+      <c r="C24" s="458"/>
       <c r="D24" s="237"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
@@ -50354,10 +52862,10 @@
   </cols>
   <sheetData>
     <row r="47" spans="1:3" ht="15.75">
-      <c r="A47" s="452" t="s">
+      <c r="A47" s="461" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="452" t="s">
+      <c r="B47" s="461" t="s">
         <v>484</v>
       </c>
       <c r="C47" s="245" t="s">
@@ -50365,8 +52873,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
-      <c r="A48" s="452"/>
-      <c r="B48" s="452"/>
+      <c r="A48" s="461"/>
+      <c r="B48" s="461"/>
       <c r="C48" s="245" t="s">
         <v>486</v>
       </c>
@@ -51022,11 +53530,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="453" t="s">
+      <c r="A31" s="462" t="s">
         <v>523</v>
       </c>
-      <c r="B31" s="453"/>
-      <c r="C31" s="453"/>
+      <c r="B31" s="462"/>
+      <c r="C31" s="462"/>
       <c r="D31" s="119">
         <f>SUM(D26:D30)</f>
         <v>398504.25488783605</v>
@@ -51038,11 +53546,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="462" t="s">
         <v>524</v>
       </c>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
+      <c r="B32" s="462"/>
+      <c r="C32" s="462"/>
       <c r="D32" s="119">
         <f>ABS($B$25)</f>
         <v>400000</v>
@@ -51054,11 +53562,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="453" t="s">
+      <c r="A33" s="462" t="s">
         <v>525</v>
       </c>
-      <c r="B33" s="453"/>
-      <c r="C33" s="453"/>
+      <c r="B33" s="462"/>
+      <c r="C33" s="462"/>
       <c r="D33" s="225">
         <f>D31-D32</f>
         <v>-1495.745112163946</v>
@@ -51276,45 +53784,45 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="462" t="s">
         <v>523</v>
       </c>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
+      <c r="B32" s="462"/>
+      <c r="C32" s="462"/>
       <c r="D32" s="119">
         <f>SUM(D27:D31)</f>
         <v>170575.78034287272</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="453" t="s">
+      <c r="A33" s="462" t="s">
         <v>524</v>
       </c>
-      <c r="B33" s="453"/>
-      <c r="C33" s="453"/>
+      <c r="B33" s="462"/>
+      <c r="C33" s="462"/>
       <c r="D33" s="119">
         <f>ABS(B26)</f>
         <v>150000</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="453" t="s">
+      <c r="A34" s="462" t="s">
         <v>525</v>
       </c>
-      <c r="B34" s="453"/>
-      <c r="C34" s="453"/>
+      <c r="B34" s="462"/>
+      <c r="C34" s="462"/>
       <c r="D34" s="119">
         <f>D32-D33</f>
         <v>20575.78034287272</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A35" s="454" t="str">
+      <c r="A35" s="463" t="str">
         <f ca="1">"Nilai Sekarang Bersih Dengan  Excel"&amp;" "&amp;_xlfn.FORMULATEXT(D35)</f>
         <v>Nilai Sekarang Bersih Dengan  Excel =NPV(C26;B27#)+B26</v>
       </c>
-      <c r="B35" s="454"/>
-      <c r="C35" s="454"/>
+      <c r="B35" s="463"/>
+      <c r="C35" s="463"/>
       <c r="D35" s="119">
         <f>NPV(C26,_xlfn.ANCHORARRAY(B27))+B26</f>
         <v>20575.78034287272</v>
@@ -51356,48 +53864,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="370" t="s">
+      <c r="A1" s="379" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="371" t="s">
+      <c r="A2" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="371" t="s">
+      <c r="D2" s="380" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="371" t="s">
+      <c r="E2" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="371" t="s">
+      <c r="F2" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="371" t="s">
+      <c r="G2" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="371"/>
+      <c r="H2" s="380"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="371"/>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
+      <c r="A3" s="380"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
       <c r="G3" s="287" t="s">
         <v>4</v>
       </c>
@@ -51441,11 +53949,11 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="367"/>
+      <c r="A6" s="376"/>
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="372" t="s">
+      <c r="C6" s="381" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -51462,11 +53970,11 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="368"/>
+      <c r="A7" s="377"/>
       <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="373"/>
+      <c r="C7" s="382"/>
       <c r="D7" s="19" t="s">
         <v>52</v>
       </c>
@@ -51481,11 +53989,11 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="368"/>
+      <c r="A8" s="377"/>
       <c r="B8" s="16">
         <v>15</v>
       </c>
-      <c r="C8" s="373"/>
+      <c r="C8" s="382"/>
       <c r="D8" s="19" t="s">
         <v>52</v>
       </c>
@@ -51500,11 +54008,11 @@
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="368"/>
+      <c r="A9" s="377"/>
       <c r="B9" s="16">
         <v>16</v>
       </c>
-      <c r="C9" s="373"/>
+      <c r="C9" s="382"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -51519,11 +54027,11 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="368"/>
+      <c r="A10" s="377"/>
       <c r="B10" s="16">
         <v>23</v>
       </c>
-      <c r="C10" s="373"/>
+      <c r="C10" s="382"/>
       <c r="D10" s="19" t="s">
         <v>52</v>
       </c>
@@ -51538,11 +54046,11 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="368"/>
+      <c r="A11" s="377"/>
       <c r="B11" s="16">
         <v>26</v>
       </c>
-      <c r="C11" s="373"/>
+      <c r="C11" s="382"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -51557,11 +54065,11 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="368"/>
+      <c r="A12" s="377"/>
       <c r="B12" s="16">
         <v>31</v>
       </c>
-      <c r="C12" s="373"/>
+      <c r="C12" s="382"/>
       <c r="D12" s="19" t="s">
         <v>52</v>
       </c>
@@ -51576,11 +54084,11 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="369"/>
+      <c r="A13" s="378"/>
       <c r="B13" s="14">
         <v>31</v>
       </c>
-      <c r="C13" s="374"/>
+      <c r="C13" s="383"/>
       <c r="D13" s="19" t="s">
         <v>52</v>
       </c>
@@ -51595,48 +54103,48 @@
       <c r="H13" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="375" t="s">
+      <c r="A15" s="384" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="376"/>
-      <c r="C15" s="376"/>
-      <c r="D15" s="376"/>
-      <c r="E15" s="376"/>
-      <c r="F15" s="376"/>
-      <c r="G15" s="377"/>
+      <c r="B15" s="385"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="385"/>
+      <c r="E15" s="385"/>
+      <c r="F15" s="385"/>
+      <c r="G15" s="386"/>
       <c r="H15" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="371"/>
-      <c r="C16" s="371" t="s">
+      <c r="B16" s="380"/>
+      <c r="C16" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="371" t="s">
+      <c r="D16" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="371" t="s">
+      <c r="E16" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="371" t="s">
+      <c r="F16" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="371" t="s">
+      <c r="G16" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="371"/>
+      <c r="H16" s="380"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="371"/>
-      <c r="B17" s="371"/>
-      <c r="C17" s="371"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="371"/>
+      <c r="A17" s="380"/>
+      <c r="B17" s="380"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="380"/>
       <c r="G17" s="287" t="s">
         <v>4</v>
       </c>
@@ -51679,48 +54187,48 @@
       <c r="H19" s="21"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="378" t="s">
+      <c r="A21" s="387" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="379"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="380"/>
+      <c r="B21" s="388"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="388"/>
+      <c r="E21" s="388"/>
+      <c r="F21" s="388"/>
+      <c r="G21" s="389"/>
       <c r="H21" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="371" t="s">
+      <c r="A22" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="371"/>
-      <c r="C22" s="371" t="s">
+      <c r="B22" s="380"/>
+      <c r="C22" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="371" t="s">
+      <c r="D22" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="371" t="s">
+      <c r="E22" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="371" t="s">
+      <c r="F22" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="371" t="s">
+      <c r="G22" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="371"/>
+      <c r="H22" s="380"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="371"/>
-      <c r="B23" s="371"/>
-      <c r="C23" s="371"/>
-      <c r="D23" s="371"/>
-      <c r="E23" s="371"/>
-      <c r="F23" s="371"/>
+      <c r="A23" s="380"/>
+      <c r="B23" s="380"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="380"/>
+      <c r="E23" s="380"/>
+      <c r="F23" s="380"/>
       <c r="G23" s="287" t="s">
         <v>4</v>
       </c>
@@ -51786,48 +54294,48 @@
       <c r="H26" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="382" t="s">
+      <c r="A28" s="391" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="383"/>
-      <c r="C28" s="383"/>
-      <c r="D28" s="383"/>
-      <c r="E28" s="383"/>
-      <c r="F28" s="383"/>
-      <c r="G28" s="384"/>
+      <c r="B28" s="392"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="392"/>
+      <c r="E28" s="392"/>
+      <c r="F28" s="392"/>
+      <c r="G28" s="393"/>
       <c r="H28" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="371" t="s">
+      <c r="A29" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="371"/>
-      <c r="C29" s="371" t="s">
+      <c r="B29" s="380"/>
+      <c r="C29" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="371" t="s">
+      <c r="D29" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="371" t="s">
+      <c r="E29" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="371" t="s">
+      <c r="F29" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="371" t="s">
+      <c r="G29" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="371"/>
+      <c r="H29" s="380"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="371"/>
-      <c r="B30" s="371"/>
-      <c r="C30" s="371"/>
-      <c r="D30" s="371"/>
-      <c r="E30" s="371"/>
-      <c r="F30" s="371"/>
+      <c r="A30" s="380"/>
+      <c r="B30" s="380"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
+      <c r="F30" s="380"/>
       <c r="G30" s="287" t="s">
         <v>4</v>
       </c>
@@ -51875,7 +54383,7 @@
       <c r="B33" s="37">
         <v>10</v>
       </c>
-      <c r="C33" s="381" t="str">
+      <c r="C33" s="390" t="str">
         <f>C26</f>
         <v>Posting</v>
       </c>
@@ -51897,7 +54405,7 @@
       <c r="B34" s="37">
         <v>23</v>
       </c>
-      <c r="C34" s="381"/>
+      <c r="C34" s="390"/>
       <c r="D34" s="37" t="s">
         <v>52</v>
       </c>
@@ -51912,48 +54420,48 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="378" t="s">
+      <c r="A36" s="387" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="379"/>
-      <c r="C36" s="379"/>
-      <c r="D36" s="379"/>
-      <c r="E36" s="379"/>
-      <c r="F36" s="379"/>
-      <c r="G36" s="380"/>
+      <c r="B36" s="388"/>
+      <c r="C36" s="388"/>
+      <c r="D36" s="388"/>
+      <c r="E36" s="388"/>
+      <c r="F36" s="388"/>
+      <c r="G36" s="389"/>
       <c r="H36" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="371" t="s">
+      <c r="A37" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="371"/>
-      <c r="C37" s="371" t="s">
+      <c r="B37" s="380"/>
+      <c r="C37" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="371" t="s">
+      <c r="D37" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="371" t="s">
+      <c r="E37" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="371" t="s">
+      <c r="F37" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="371"/>
+      <c r="H37" s="380"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="371"/>
-      <c r="B38" s="371"/>
-      <c r="C38" s="371"/>
-      <c r="D38" s="371"/>
-      <c r="E38" s="371"/>
-      <c r="F38" s="371"/>
+      <c r="A38" s="380"/>
+      <c r="B38" s="380"/>
+      <c r="C38" s="380"/>
+      <c r="D38" s="380"/>
+      <c r="E38" s="380"/>
+      <c r="F38" s="380"/>
       <c r="G38" s="287" t="s">
         <v>4</v>
       </c>
@@ -52007,48 +54515,48 @@
       <c r="H41"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="378" t="s">
+      <c r="A42" s="387" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="379"/>
-      <c r="C42" s="379"/>
-      <c r="D42" s="379"/>
-      <c r="E42" s="379"/>
-      <c r="F42" s="379"/>
-      <c r="G42" s="380"/>
+      <c r="B42" s="388"/>
+      <c r="C42" s="388"/>
+      <c r="D42" s="388"/>
+      <c r="E42" s="388"/>
+      <c r="F42" s="388"/>
+      <c r="G42" s="389"/>
       <c r="H42" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="371" t="s">
+      <c r="A43" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="371"/>
-      <c r="C43" s="371" t="s">
+      <c r="B43" s="380"/>
+      <c r="C43" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="371" t="s">
+      <c r="D43" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="371" t="s">
+      <c r="E43" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="371" t="s">
+      <c r="F43" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="371" t="s">
+      <c r="G43" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="371"/>
+      <c r="H43" s="380"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="371"/>
-      <c r="B44" s="371"/>
-      <c r="C44" s="371"/>
-      <c r="D44" s="371"/>
-      <c r="E44" s="371"/>
-      <c r="F44" s="371"/>
+      <c r="A44" s="380"/>
+      <c r="B44" s="380"/>
+      <c r="C44" s="380"/>
+      <c r="D44" s="380"/>
+      <c r="E44" s="380"/>
+      <c r="F44" s="380"/>
       <c r="G44" s="287" t="s">
         <v>4</v>
       </c>
@@ -52091,48 +54599,48 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="378" t="s">
+      <c r="A48" s="387" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="379"/>
-      <c r="C48" s="379"/>
-      <c r="D48" s="379"/>
-      <c r="E48" s="379"/>
-      <c r="F48" s="379"/>
-      <c r="G48" s="380"/>
+      <c r="B48" s="388"/>
+      <c r="C48" s="388"/>
+      <c r="D48" s="388"/>
+      <c r="E48" s="388"/>
+      <c r="F48" s="388"/>
+      <c r="G48" s="389"/>
       <c r="H48" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="371" t="s">
+      <c r="A49" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="371"/>
-      <c r="C49" s="371" t="s">
+      <c r="B49" s="380"/>
+      <c r="C49" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="371" t="s">
+      <c r="D49" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="371" t="s">
+      <c r="E49" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="371" t="s">
+      <c r="F49" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="371" t="s">
+      <c r="G49" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="371"/>
+      <c r="H49" s="380"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="371"/>
-      <c r="B50" s="371"/>
-      <c r="C50" s="371"/>
-      <c r="D50" s="371"/>
-      <c r="E50" s="371"/>
-      <c r="F50" s="371"/>
+      <c r="A50" s="380"/>
+      <c r="B50" s="380"/>
+      <c r="C50" s="380"/>
+      <c r="D50" s="380"/>
+      <c r="E50" s="380"/>
+      <c r="F50" s="380"/>
       <c r="G50" s="287" t="s">
         <v>4</v>
       </c>
@@ -52175,48 +54683,48 @@
       <c r="H52" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="378" t="s">
+      <c r="A54" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="379"/>
-      <c r="C54" s="379"/>
-      <c r="D54" s="379"/>
-      <c r="E54" s="379"/>
-      <c r="F54" s="379"/>
-      <c r="G54" s="380"/>
+      <c r="B54" s="388"/>
+      <c r="C54" s="388"/>
+      <c r="D54" s="388"/>
+      <c r="E54" s="388"/>
+      <c r="F54" s="388"/>
+      <c r="G54" s="389"/>
       <c r="H54" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="371" t="s">
+      <c r="A55" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="371"/>
-      <c r="C55" s="371" t="s">
+      <c r="B55" s="380"/>
+      <c r="C55" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="371" t="s">
+      <c r="D55" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="371" t="s">
+      <c r="E55" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="371" t="s">
+      <c r="F55" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="371" t="s">
+      <c r="G55" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="371"/>
+      <c r="H55" s="380"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="371"/>
-      <c r="B56" s="371"/>
-      <c r="C56" s="371"/>
-      <c r="D56" s="371"/>
-      <c r="E56" s="371"/>
-      <c r="F56" s="371"/>
+      <c r="A56" s="380"/>
+      <c r="B56" s="380"/>
+      <c r="C56" s="380"/>
+      <c r="D56" s="380"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="380"/>
       <c r="G56" s="287" t="s">
         <v>4</v>
       </c>
@@ -52260,48 +54768,48 @@
       <c r="H58" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="378" t="s">
+      <c r="A60" s="387" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="379"/>
-      <c r="C60" s="379"/>
-      <c r="D60" s="379"/>
-      <c r="E60" s="379"/>
-      <c r="F60" s="379"/>
-      <c r="G60" s="380"/>
+      <c r="B60" s="388"/>
+      <c r="C60" s="388"/>
+      <c r="D60" s="388"/>
+      <c r="E60" s="388"/>
+      <c r="F60" s="388"/>
+      <c r="G60" s="389"/>
       <c r="H60" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="371" t="s">
+      <c r="A61" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="371"/>
-      <c r="C61" s="371" t="s">
+      <c r="B61" s="380"/>
+      <c r="C61" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="371" t="s">
+      <c r="D61" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="371" t="s">
+      <c r="E61" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="371" t="s">
+      <c r="F61" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="371" t="s">
+      <c r="G61" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="371"/>
+      <c r="H61" s="380"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="371"/>
-      <c r="B62" s="371"/>
-      <c r="C62" s="371"/>
-      <c r="D62" s="371"/>
-      <c r="E62" s="371"/>
-      <c r="F62" s="371"/>
+      <c r="A62" s="380"/>
+      <c r="B62" s="380"/>
+      <c r="C62" s="380"/>
+      <c r="D62" s="380"/>
+      <c r="E62" s="380"/>
+      <c r="F62" s="380"/>
       <c r="G62" s="287" t="s">
         <v>4</v>
       </c>
@@ -52344,48 +54852,48 @@
       <c r="H64" s="42"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="378" t="s">
+      <c r="A66" s="387" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="379"/>
-      <c r="C66" s="379"/>
-      <c r="D66" s="379"/>
-      <c r="E66" s="379"/>
-      <c r="F66" s="379"/>
-      <c r="G66" s="380"/>
+      <c r="B66" s="388"/>
+      <c r="C66" s="388"/>
+      <c r="D66" s="388"/>
+      <c r="E66" s="388"/>
+      <c r="F66" s="388"/>
+      <c r="G66" s="389"/>
       <c r="H66" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="371" t="s">
+      <c r="A67" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="371"/>
-      <c r="C67" s="371" t="s">
+      <c r="B67" s="380"/>
+      <c r="C67" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="371" t="s">
+      <c r="D67" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="371" t="s">
+      <c r="E67" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="371" t="s">
+      <c r="F67" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="371" t="s">
+      <c r="G67" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="371"/>
+      <c r="H67" s="380"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="371"/>
-      <c r="B68" s="371"/>
-      <c r="C68" s="371"/>
-      <c r="D68" s="371"/>
-      <c r="E68" s="371"/>
-      <c r="F68" s="371"/>
+      <c r="A68" s="380"/>
+      <c r="B68" s="380"/>
+      <c r="C68" s="380"/>
+      <c r="D68" s="380"/>
+      <c r="E68" s="380"/>
+      <c r="F68" s="380"/>
       <c r="G68" s="287" t="s">
         <v>4</v>
       </c>
@@ -52428,48 +54936,48 @@
       <c r="H70" s="42"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="378" t="s">
+      <c r="A72" s="387" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="379"/>
-      <c r="C72" s="379"/>
-      <c r="D72" s="379"/>
-      <c r="E72" s="379"/>
-      <c r="F72" s="379"/>
-      <c r="G72" s="380"/>
+      <c r="B72" s="388"/>
+      <c r="C72" s="388"/>
+      <c r="D72" s="388"/>
+      <c r="E72" s="388"/>
+      <c r="F72" s="388"/>
+      <c r="G72" s="389"/>
       <c r="H72" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="371" t="s">
+      <c r="A73" s="380" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="371"/>
-      <c r="C73" s="371" t="s">
+      <c r="B73" s="380"/>
+      <c r="C73" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="371" t="s">
+      <c r="D73" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="371" t="s">
+      <c r="E73" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="371" t="s">
+      <c r="F73" s="380" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="371" t="s">
+      <c r="G73" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="371"/>
+      <c r="H73" s="380"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="371"/>
-      <c r="B74" s="371"/>
-      <c r="C74" s="371"/>
-      <c r="D74" s="371"/>
-      <c r="E74" s="371"/>
-      <c r="F74" s="371"/>
+      <c r="A74" s="380"/>
+      <c r="B74" s="380"/>
+      <c r="C74" s="380"/>
+      <c r="D74" s="380"/>
+      <c r="E74" s="380"/>
+      <c r="F74" s="380"/>
       <c r="G74" s="287" t="s">
         <v>4</v>
       </c>
@@ -52800,49 +55308,49 @@
   </cols>
   <sheetData>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="455" t="s">
+      <c r="A24" s="464" t="s">
         <v>533</v>
       </c>
-      <c r="B24" s="456"/>
-      <c r="C24" s="456"/>
-      <c r="D24" s="456"/>
-      <c r="E24" s="456"/>
-      <c r="F24" s="457"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="465"/>
+      <c r="D24" s="465"/>
+      <c r="E24" s="465"/>
+      <c r="F24" s="466"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="458" t="s">
+      <c r="A25" s="467" t="s">
         <v>534</v>
       </c>
-      <c r="B25" s="459"/>
-      <c r="C25" s="459"/>
-      <c r="D25" s="459"/>
-      <c r="E25" s="459"/>
-      <c r="F25" s="460"/>
+      <c r="B25" s="468"/>
+      <c r="C25" s="468"/>
+      <c r="D25" s="468"/>
+      <c r="E25" s="468"/>
+      <c r="F25" s="469"/>
     </row>
     <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="464" t="s">
+      <c r="A26" s="473" t="s">
         <v>535</v>
       </c>
-      <c r="B26" s="465"/>
-      <c r="C26" s="465"/>
-      <c r="D26" s="465"/>
-      <c r="E26" s="465"/>
-      <c r="F26" s="466"/>
+      <c r="B26" s="474"/>
+      <c r="C26" s="474"/>
+      <c r="D26" s="474"/>
+      <c r="E26" s="474"/>
+      <c r="F26" s="475"/>
     </row>
     <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="467"/>
-      <c r="B27" s="469" t="s">
+      <c r="A27" s="476"/>
+      <c r="B27" s="478" t="s">
         <v>536</v>
       </c>
-      <c r="C27" s="470"/>
-      <c r="D27" s="470"/>
-      <c r="E27" s="471"/>
-      <c r="F27" s="455" t="s">
+      <c r="C27" s="479"/>
+      <c r="D27" s="479"/>
+      <c r="E27" s="480"/>
+      <c r="F27" s="464" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="468"/>
+      <c r="A28" s="477"/>
       <c r="B28" s="261">
         <v>1</v>
       </c>
@@ -52855,7 +55363,7 @@
       <c r="E28" s="261">
         <v>4</v>
       </c>
-      <c r="F28" s="458"/>
+      <c r="F28" s="467"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="52" t="s">
@@ -52924,44 +55432,44 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="455" t="s">
+      <c r="A39" s="464" t="s">
         <v>541</v>
       </c>
-      <c r="B39" s="456"/>
-      <c r="C39" s="456"/>
-      <c r="D39" s="456"/>
-      <c r="E39" s="456"/>
-      <c r="F39" s="457"/>
+      <c r="B39" s="465"/>
+      <c r="C39" s="465"/>
+      <c r="D39" s="465"/>
+      <c r="E39" s="465"/>
+      <c r="F39" s="466"/>
     </row>
     <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="455" t="s">
+      <c r="A40" s="464" t="s">
         <v>542</v>
       </c>
-      <c r="B40" s="456"/>
-      <c r="C40" s="456"/>
-      <c r="D40" s="456"/>
-      <c r="E40" s="456"/>
-      <c r="F40" s="457"/>
+      <c r="B40" s="465"/>
+      <c r="C40" s="465"/>
+      <c r="D40" s="465"/>
+      <c r="E40" s="465"/>
+      <c r="F40" s="466"/>
     </row>
     <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="458" t="s">
+      <c r="A41" s="467" t="s">
         <v>535</v>
       </c>
-      <c r="B41" s="459"/>
-      <c r="C41" s="459"/>
-      <c r="D41" s="459"/>
-      <c r="E41" s="459"/>
-      <c r="F41" s="460"/>
+      <c r="B41" s="468"/>
+      <c r="C41" s="468"/>
+      <c r="D41" s="468"/>
+      <c r="E41" s="468"/>
+      <c r="F41" s="469"/>
     </row>
     <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="461"/>
-      <c r="B42" s="462" t="s">
+      <c r="A42" s="470"/>
+      <c r="B42" s="471" t="s">
         <v>536</v>
       </c>
-      <c r="C42" s="462"/>
-      <c r="D42" s="462"/>
-      <c r="E42" s="462"/>
-      <c r="F42" s="463" t="s">
+      <c r="C42" s="471"/>
+      <c r="D42" s="471"/>
+      <c r="E42" s="471"/>
+      <c r="F42" s="472" t="s">
         <v>537</v>
       </c>
     </row>
@@ -53095,41 +55603,41 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="472" t="s">
+      <c r="A61" s="481" t="s">
         <v>541</v>
       </c>
-      <c r="B61" s="473"/>
-      <c r="C61" s="473"/>
-      <c r="D61" s="473"/>
-      <c r="E61" s="473"/>
-      <c r="F61" s="474"/>
+      <c r="B61" s="482"/>
+      <c r="C61" s="482"/>
+      <c r="D61" s="482"/>
+      <c r="E61" s="482"/>
+      <c r="F61" s="483"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="475" t="s">
+      <c r="A62" s="484" t="s">
         <v>607</v>
       </c>
-      <c r="B62" s="476"/>
-      <c r="C62" s="476"/>
-      <c r="D62" s="476"/>
-      <c r="E62" s="476"/>
-      <c r="F62" s="477"/>
+      <c r="B62" s="485"/>
+      <c r="C62" s="485"/>
+      <c r="D62" s="485"/>
+      <c r="E62" s="485"/>
+      <c r="F62" s="486"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="478" t="s">
+      <c r="A63" s="487" t="s">
         <v>547</v>
       </c>
-      <c r="B63" s="480" t="s">
+      <c r="B63" s="489" t="s">
         <v>536</v>
       </c>
-      <c r="C63" s="481"/>
-      <c r="D63" s="481"/>
-      <c r="E63" s="482"/>
-      <c r="F63" s="472" t="s">
+      <c r="C63" s="490"/>
+      <c r="D63" s="490"/>
+      <c r="E63" s="491"/>
+      <c r="F63" s="481" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75">
-      <c r="A64" s="479"/>
+      <c r="A64" s="488"/>
       <c r="B64" s="264">
         <v>1</v>
       </c>
@@ -53142,7 +55650,7 @@
       <c r="E64" s="264">
         <v>4</v>
       </c>
-      <c r="F64" s="483"/>
+      <c r="F64" s="492"/>
     </row>
     <row r="65" spans="1:8" ht="31.5">
       <c r="A65" s="2" t="s">
@@ -53368,41 +55876,41 @@
       <c r="F74" s="291"/>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="472" t="s">
+      <c r="A75" s="481" t="s">
         <v>541</v>
       </c>
-      <c r="B75" s="473"/>
-      <c r="C75" s="473"/>
-      <c r="D75" s="473"/>
-      <c r="E75" s="473"/>
-      <c r="F75" s="473"/>
+      <c r="B75" s="482"/>
+      <c r="C75" s="482"/>
+      <c r="D75" s="482"/>
+      <c r="E75" s="482"/>
+      <c r="F75" s="482"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="475" t="s">
+      <c r="A76" s="484" t="s">
         <v>606</v>
       </c>
-      <c r="B76" s="476"/>
-      <c r="C76" s="476"/>
-      <c r="D76" s="476"/>
-      <c r="E76" s="476"/>
-      <c r="F76" s="476"/>
+      <c r="B76" s="485"/>
+      <c r="C76" s="485"/>
+      <c r="D76" s="485"/>
+      <c r="E76" s="485"/>
+      <c r="F76" s="485"/>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="478" t="s">
+      <c r="A77" s="487" t="s">
         <v>547</v>
       </c>
-      <c r="B77" s="480" t="s">
+      <c r="B77" s="489" t="s">
         <v>536</v>
       </c>
-      <c r="C77" s="481"/>
-      <c r="D77" s="481"/>
-      <c r="E77" s="482"/>
-      <c r="F77" s="472" t="s">
+      <c r="C77" s="490"/>
+      <c r="D77" s="490"/>
+      <c r="E77" s="491"/>
+      <c r="F77" s="481" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="479"/>
+      <c r="A78" s="488"/>
       <c r="B78" s="264">
         <v>1</v>
       </c>
@@ -53415,7 +55923,7 @@
       <c r="E78" s="264">
         <v>4</v>
       </c>
-      <c r="F78" s="483"/>
+      <c r="F78" s="492"/>
     </row>
     <row r="79" spans="1:8" ht="31.5">
       <c r="A79" s="2" t="s">
@@ -53666,49 +56174,49 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="484" t="s">
+      <c r="A96" s="493" t="s">
         <v>541</v>
       </c>
-      <c r="B96" s="484"/>
-      <c r="C96" s="484"/>
-      <c r="D96" s="484"/>
-      <c r="E96" s="484"/>
-      <c r="F96" s="484"/>
+      <c r="B96" s="493"/>
+      <c r="C96" s="493"/>
+      <c r="D96" s="493"/>
+      <c r="E96" s="493"/>
+      <c r="F96" s="493"/>
     </row>
     <row r="97" spans="1:6" ht="15.75">
-      <c r="A97" s="484" t="s">
+      <c r="A97" s="493" t="s">
         <v>556</v>
       </c>
-      <c r="B97" s="484"/>
-      <c r="C97" s="484"/>
-      <c r="D97" s="484"/>
-      <c r="E97" s="484"/>
-      <c r="F97" s="484"/>
+      <c r="B97" s="493"/>
+      <c r="C97" s="493"/>
+      <c r="D97" s="493"/>
+      <c r="E97" s="493"/>
+      <c r="F97" s="493"/>
     </row>
     <row r="98" spans="1:6" ht="15.75">
-      <c r="A98" s="484" t="s">
+      <c r="A98" s="493" t="s">
         <v>535</v>
       </c>
-      <c r="B98" s="484"/>
-      <c r="C98" s="484"/>
-      <c r="D98" s="484"/>
-      <c r="E98" s="484"/>
-      <c r="F98" s="484"/>
+      <c r="B98" s="493"/>
+      <c r="C98" s="493"/>
+      <c r="D98" s="493"/>
+      <c r="E98" s="493"/>
+      <c r="F98" s="493"/>
     </row>
     <row r="99" spans="1:6" ht="15.75">
-      <c r="A99" s="485"/>
-      <c r="B99" s="484" t="s">
+      <c r="A99" s="494"/>
+      <c r="B99" s="493" t="s">
         <v>536</v>
       </c>
-      <c r="C99" s="484"/>
-      <c r="D99" s="484"/>
-      <c r="E99" s="484"/>
-      <c r="F99" s="486" t="s">
+      <c r="C99" s="493"/>
+      <c r="D99" s="493"/>
+      <c r="E99" s="493"/>
+      <c r="F99" s="495" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75">
-      <c r="A100" s="485"/>
+      <c r="A100" s="494"/>
       <c r="B100" s="276">
         <v>1</v>
       </c>
@@ -53721,7 +56229,7 @@
       <c r="E100" s="276">
         <v>4</v>
       </c>
-      <c r="F100" s="486"/>
+      <c r="F100" s="495"/>
     </row>
     <row r="101" spans="1:6" ht="30">
       <c r="A101" s="52" t="s">
@@ -53839,49 +56347,49 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75">
-      <c r="A112" s="484" t="s">
+      <c r="A112" s="493" t="s">
         <v>541</v>
       </c>
-      <c r="B112" s="484"/>
-      <c r="C112" s="484"/>
-      <c r="D112" s="484"/>
-      <c r="E112" s="484"/>
-      <c r="F112" s="484"/>
+      <c r="B112" s="493"/>
+      <c r="C112" s="493"/>
+      <c r="D112" s="493"/>
+      <c r="E112" s="493"/>
+      <c r="F112" s="493"/>
     </row>
     <row r="113" spans="1:6" ht="15.75">
-      <c r="A113" s="484" t="s">
+      <c r="A113" s="493" t="s">
         <v>562</v>
       </c>
-      <c r="B113" s="484"/>
-      <c r="C113" s="484"/>
-      <c r="D113" s="484"/>
-      <c r="E113" s="484"/>
-      <c r="F113" s="484"/>
+      <c r="B113" s="493"/>
+      <c r="C113" s="493"/>
+      <c r="D113" s="493"/>
+      <c r="E113" s="493"/>
+      <c r="F113" s="493"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
-      <c r="A114" s="484" t="s">
+      <c r="A114" s="493" t="s">
         <v>535</v>
       </c>
-      <c r="B114" s="484"/>
-      <c r="C114" s="484"/>
-      <c r="D114" s="484"/>
-      <c r="E114" s="484"/>
-      <c r="F114" s="484"/>
+      <c r="B114" s="493"/>
+      <c r="C114" s="493"/>
+      <c r="D114" s="493"/>
+      <c r="E114" s="493"/>
+      <c r="F114" s="493"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1">
-      <c r="A115" s="485"/>
-      <c r="B115" s="484" t="s">
+      <c r="A115" s="494"/>
+      <c r="B115" s="493" t="s">
         <v>536</v>
       </c>
-      <c r="C115" s="484"/>
-      <c r="D115" s="484"/>
-      <c r="E115" s="484"/>
-      <c r="F115" s="486" t="s">
+      <c r="C115" s="493"/>
+      <c r="D115" s="493"/>
+      <c r="E115" s="493"/>
+      <c r="F115" s="495" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A116" s="485"/>
+      <c r="A116" s="494"/>
       <c r="B116" s="276">
         <v>1</v>
       </c>
@@ -53894,7 +56402,7 @@
       <c r="E116" s="276">
         <v>4</v>
       </c>
-      <c r="F116" s="486"/>
+      <c r="F116" s="495"/>
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="52" t="s">
@@ -54011,34 +56519,34 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
-      <c r="A126" s="488" t="s">
+      <c r="A126" s="497" t="s">
         <v>541</v>
       </c>
-      <c r="B126" s="488"/>
+      <c r="B126" s="497"/>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
-      <c r="A127" s="488" t="s">
+      <c r="A127" s="497" t="s">
         <v>568</v>
       </c>
-      <c r="B127" s="488"/>
+      <c r="B127" s="497"/>
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1">
-      <c r="A128" s="488" t="s">
+      <c r="A128" s="497" t="s">
         <v>535</v>
       </c>
-      <c r="B128" s="488"/>
+      <c r="B128" s="497"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="489" t="s">
+      <c r="A129" s="498" t="s">
         <v>569</v>
       </c>
-      <c r="B129" s="488" t="s">
+      <c r="B129" s="497" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="489"/>
-      <c r="B130" s="488"/>
+      <c r="A130" s="498"/>
+      <c r="B130" s="497"/>
     </row>
     <row r="131" spans="1:6" ht="47.25">
       <c r="A131" s="278" t="s">
@@ -54059,10 +56567,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75">
-      <c r="A133" s="487" t="s">
+      <c r="A133" s="496" t="s">
         <v>572</v>
       </c>
-      <c r="B133" s="487"/>
+      <c r="B133" s="496"/>
     </row>
     <row r="134" spans="1:6" ht="31.5">
       <c r="A134" s="278" t="s">
@@ -54092,49 +56600,49 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75">
-      <c r="A139" s="490" t="s">
+      <c r="A139" s="499" t="s">
         <v>576</v>
       </c>
-      <c r="B139" s="490"/>
-      <c r="C139" s="490"/>
-      <c r="D139" s="490"/>
-      <c r="E139" s="490"/>
-      <c r="F139" s="490"/>
+      <c r="B139" s="499"/>
+      <c r="C139" s="499"/>
+      <c r="D139" s="499"/>
+      <c r="E139" s="499"/>
+      <c r="F139" s="499"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
-      <c r="A140" s="490" t="s">
+      <c r="A140" s="499" t="s">
         <v>577</v>
       </c>
-      <c r="B140" s="490"/>
-      <c r="C140" s="490"/>
-      <c r="D140" s="490"/>
-      <c r="E140" s="490"/>
-      <c r="F140" s="490"/>
+      <c r="B140" s="499"/>
+      <c r="C140" s="499"/>
+      <c r="D140" s="499"/>
+      <c r="E140" s="499"/>
+      <c r="F140" s="499"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
-      <c r="A141" s="490" t="s">
+      <c r="A141" s="499" t="s">
         <v>535</v>
       </c>
-      <c r="B141" s="490"/>
-      <c r="C141" s="490"/>
-      <c r="D141" s="490"/>
-      <c r="E141" s="490"/>
-      <c r="F141" s="490"/>
+      <c r="B141" s="499"/>
+      <c r="C141" s="499"/>
+      <c r="D141" s="499"/>
+      <c r="E141" s="499"/>
+      <c r="F141" s="499"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1">
-      <c r="A142" s="485"/>
-      <c r="B142" s="490" t="s">
+      <c r="A142" s="494"/>
+      <c r="B142" s="499" t="s">
         <v>536</v>
       </c>
-      <c r="C142" s="490"/>
-      <c r="D142" s="490"/>
-      <c r="E142" s="490"/>
-      <c r="F142" s="490" t="s">
+      <c r="C142" s="499"/>
+      <c r="D142" s="499"/>
+      <c r="E142" s="499"/>
+      <c r="F142" s="499" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A143" s="485"/>
+      <c r="A143" s="494"/>
       <c r="B143" s="300">
         <v>1</v>
       </c>
@@ -54147,7 +56655,7 @@
       <c r="E143" s="300">
         <v>4</v>
       </c>
-      <c r="F143" s="490"/>
+      <c r="F143" s="499"/>
     </row>
     <row r="144" spans="1:6" ht="31.5">
       <c r="A144" s="2" t="s">
@@ -54516,22 +57024,22 @@
       <c r="E13" s="288"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="491" t="s">
+      <c r="A25" s="500" t="s">
         <v>595</v>
       </c>
-      <c r="B25" s="491"/>
-      <c r="C25" s="491"/>
-      <c r="D25" s="491"/>
-      <c r="E25" s="491"/>
+      <c r="B25" s="500"/>
+      <c r="C25" s="500"/>
+      <c r="D25" s="500"/>
+      <c r="E25" s="500"/>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="491" t="s">
+      <c r="A26" s="500" t="s">
         <v>596</v>
       </c>
-      <c r="B26" s="491"/>
-      <c r="C26" s="491"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="491"/>
+      <c r="B26" s="500"/>
+      <c r="C26" s="500"/>
+      <c r="D26" s="500"/>
+      <c r="E26" s="500"/>
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="286"/>
@@ -55279,11 +57787,454 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803D20C8-5B9A-4EE5-B377-93DD264B346D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A23:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="337" customWidth="1"/>
+    <col min="2" max="16384" width="22.140625" style="337"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="1:2" ht="16.5">
+      <c r="A23" s="352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="352" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="357">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="31.5">
+      <c r="A25" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B25" s="357">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B26" s="357">
+        <f>B24-B25</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B27" s="357">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B28" s="358">
+        <f>B26-B27</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="354" t="s">
+        <v>655</v>
+      </c>
+      <c r="B30" s="356">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="354" t="s">
+        <v>650</v>
+      </c>
+      <c r="B31" s="355">
+        <f>B27</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="354" t="s">
+        <v>651</v>
+      </c>
+      <c r="B32" s="355">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="354" t="s">
+        <v>652</v>
+      </c>
+      <c r="B33" s="515">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="354" t="s">
+        <v>653</v>
+      </c>
+      <c r="B34" s="515">
+        <f>B25/B30</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="354" t="s">
+        <v>654</v>
+      </c>
+      <c r="B35" s="356">
+        <f>ROUNDUP((B31+B32)/(B33-B34),0)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="354" t="s">
+        <v>655</v>
+      </c>
+      <c r="B40" s="356">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="354" t="s">
+        <v>650</v>
+      </c>
+      <c r="B41" s="359">
+        <f>B31</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="354" t="s">
+        <v>651</v>
+      </c>
+      <c r="B42" s="359">
+        <f>ROUNDUP((2500000/(1-0.25)),0)</f>
+        <v>3333334</v>
+      </c>
+      <c r="C42" s="353"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="354" t="s">
+        <v>652</v>
+      </c>
+      <c r="B43" s="515">
+        <f>B33</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="354" t="s">
+        <v>653</v>
+      </c>
+      <c r="B44" s="515">
+        <f>B34</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="354" t="s">
+        <v>654</v>
+      </c>
+      <c r="B45" s="356">
+        <f>ROUNDUP((B41+B42)/(B43-B44),0)</f>
+        <v>265</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="354" t="s">
+        <v>656</v>
+      </c>
+      <c r="B46" s="359">
+        <f>B41+B42</f>
+        <v>3433334</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A638EA-B47B-4544-B1AE-C9B1B40BE9DB}">
+  <sheetPr>
+    <tabColor rgb="FF006666"/>
+  </sheetPr>
+  <dimension ref="A15:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="503" t="s">
+        <v>657</v>
+      </c>
+      <c r="B15" s="503" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="232" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="508">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="236" t="s">
+        <v>658</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="93"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="109" t="s">
+        <v>659</v>
+      </c>
+      <c r="B18" s="509">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="93">
+        <f>$B$16*B18</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="109" t="s">
+        <v>660</v>
+      </c>
+      <c r="B19" s="509">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="93">
+        <f t="shared" ref="C19:C22" si="0">$B$16*B19</f>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="109" t="s">
+        <v>661</v>
+      </c>
+      <c r="B20" s="509">
+        <v>500</v>
+      </c>
+      <c r="C20" s="93">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="109" t="s">
+        <v>662</v>
+      </c>
+      <c r="B21" s="307">
+        <v>600</v>
+      </c>
+      <c r="C21" s="93">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="109" t="s">
+        <v>663</v>
+      </c>
+      <c r="B22" s="307">
+        <v>400</v>
+      </c>
+      <c r="C22" s="93">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="A23" s="109" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" s="307">
+        <f>SUM(C18:C22)</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="360" t="s">
+        <v>649</v>
+      </c>
+      <c r="B24" s="112"/>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="109" t="s">
+        <v>664</v>
+      </c>
+      <c r="B25" s="307">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75">
+      <c r="A26" s="109" t="s">
+        <v>662</v>
+      </c>
+      <c r="B26" s="307">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75">
+      <c r="A27" s="109" t="s">
+        <v>663</v>
+      </c>
+      <c r="B27" s="307">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
+      <c r="A28" s="109" t="str">
+        <f>A23</f>
+        <v>Total Biaya</v>
+      </c>
+      <c r="B28" s="307">
+        <f>SUM(B25:B26)</f>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="501"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" s="502" t="s">
+        <v>665</v>
+      </c>
+      <c r="B30" s="511">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="502" t="s">
+        <v>666</v>
+      </c>
+      <c r="B31" s="512">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="502" t="s">
+        <v>667</v>
+      </c>
+      <c r="B32" s="510">
+        <f>(B23+B28)/B16</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="502" t="s">
+        <v>668</v>
+      </c>
+      <c r="B33" s="513">
+        <f>(B30*B31)/(B23+B28)</f>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="502" t="s">
+        <v>669</v>
+      </c>
+      <c r="B34" s="510">
+        <f>B33*B32</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="502" t="s">
+        <v>670</v>
+      </c>
+      <c r="B35" s="510">
+        <f>B32+B34</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="504" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="504" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="506" t="s">
+        <v>671</v>
+      </c>
+      <c r="B38" s="509">
+        <f>B32</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
+      <c r="A39" s="505" t="s">
+        <v>672</v>
+      </c>
+      <c r="B39" s="514">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="507" t="s">
+        <v>673</v>
+      </c>
+      <c r="B40" s="509">
+        <f>B35</f>
+        <v>11600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1EA2EB-2529-438E-85B5-E674BCCE6383}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -55311,36 +58262,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="369" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="385" t="s">
+      <c r="A2" s="394" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="387"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="396"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="397" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="390"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="388" t="s">
+      <c r="A4" s="397" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="389"/>
-      <c r="C4" s="389"/>
-      <c r="D4" s="390"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="399"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="2" t="s">
@@ -55377,8 +58328,8 @@
       <c r="B7" s="3">
         <v>2000000</v>
       </c>
-      <c r="C7" s="391"/>
-      <c r="D7" s="392"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="401"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="2" t="s">
@@ -55387,14 +58338,14 @@
       <c r="B8" s="3">
         <v>3000000</v>
       </c>
-      <c r="C8" s="393"/>
-      <c r="D8" s="394"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="403"/>
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="395"/>
-      <c r="D9" s="396"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="405"/>
     </row>
     <row r="10" spans="1:4" ht="31.5">
       <c r="A10" s="2" t="s">
@@ -55442,15 +58393,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="406" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="397" t="s">
+      <c r="B1" s="407"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="406" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="399"/>
+      <c r="E1" s="408"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="56" t="s">
@@ -55624,63 +58575,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="409" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="402"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="411"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="403" t="s">
+      <c r="A2" s="412" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="405"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="414"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="406" t="s">
+      <c r="A3" s="415" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="408"/>
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="416"/>
+      <c r="F3" s="416"/>
+      <c r="G3" s="416"/>
+      <c r="H3" s="417"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="409" t="s">
+      <c r="A4" s="418" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="411" t="s">
+      <c r="C4" s="420" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="412"/>
-      <c r="E4" s="411" t="s">
+      <c r="D4" s="421"/>
+      <c r="E4" s="420" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="412"/>
-      <c r="G4" s="411" t="s">
+      <c r="F4" s="421"/>
+      <c r="G4" s="420" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="412"/>
+      <c r="H4" s="421"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="410"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="305" t="s">
         <v>89</v>
       </c>
@@ -56180,57 +59131,57 @@
       <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="422" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="414"/>
-      <c r="G3" s="415"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="424"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="416" t="s">
+      <c r="A4" s="425" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="417"/>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="418"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="426"/>
+      <c r="D4" s="426"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="427"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="416" t="s">
+      <c r="A5" s="425" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="417"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="417"/>
-      <c r="E5" s="417"/>
-      <c r="F5" s="417"/>
-      <c r="G5" s="418"/>
+      <c r="B5" s="426"/>
+      <c r="C5" s="426"/>
+      <c r="D5" s="426"/>
+      <c r="E5" s="426"/>
+      <c r="F5" s="426"/>
+      <c r="G5" s="427"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="371" t="s">
+      <c r="A6" s="380" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="371" t="s">
+      <c r="B6" s="380" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371" t="s">
+      <c r="C6" s="380"/>
+      <c r="D6" s="380" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371" t="s">
+      <c r="E6" s="380"/>
+      <c r="F6" s="380" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="371"/>
+      <c r="G6" s="380"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="371"/>
+      <c r="A7" s="380"/>
       <c r="B7" s="287" t="s">
         <v>4</v>
       </c>
@@ -56642,25 +59593,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="355"/>
-      <c r="C1" s="356"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="365"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="366" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="359"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="368"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="359"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="368"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
